--- a/biology/Zoologie/Homoroselaps/Homoroselaps.xlsx
+++ b/biology/Zoologie/Homoroselaps/Homoroselaps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Homoroselaps est un genre de serpents de la famille des Lamprophiidae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique du Sud et en Eswatini.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des serpents venimeux.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (2 déc. 2011)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (2 déc. 2011) :
 Homoroselaps dorsalis (Smith, 1849)
 Homoroselaps lacteus (Linnaeus, 1758)</t>
         </is>
@@ -605,7 +623,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre fut un temps placé dans les Elapidae.
 </t>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Jan, 1858 : Plan d'une iconographie descriptive des ophidiens et description sommaire de nouvelles espèces de serpents. Revue et Magasin de Zoologie Pure et Appliquée, Paris, ser. 2, vol. 10, p. 438-449 &amp; 514-527 (texte intégral).</t>
         </is>
